--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Hgf</t>
+  </si>
+  <si>
+    <t>St14</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Hgf</t>
-  </si>
-  <si>
-    <t>St14</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>5.928568666666667</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H2">
-        <v>17.785706</v>
+        <v>25.750563</v>
       </c>
       <c r="I2">
-        <v>0.3809768389628237</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="J2">
-        <v>0.3809768389628236</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3701153333333333</v>
+        <v>0.1404576666666667</v>
       </c>
       <c r="N2">
-        <v>1.110346</v>
+        <v>0.421373</v>
       </c>
       <c r="O2">
-        <v>0.3716314658367921</v>
+        <v>0.183302244487095</v>
       </c>
       <c r="P2">
-        <v>0.3716314658367921</v>
+        <v>0.1833022444870949</v>
       </c>
       <c r="Q2">
-        <v>2.194254168252889</v>
+        <v>1.205621331444333</v>
       </c>
       <c r="R2">
-        <v>19.748287514276</v>
+        <v>10.850591982999</v>
       </c>
       <c r="S2">
-        <v>0.1415829811136216</v>
+        <v>0.1633334283098969</v>
       </c>
       <c r="T2">
-        <v>0.1415829811136216</v>
+        <v>0.1633334283098969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>5.928568666666667</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H3">
-        <v>17.785706</v>
+        <v>25.750563</v>
       </c>
       <c r="I3">
-        <v>0.3809768389628237</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="J3">
-        <v>0.3809768389628236</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5312866666666668</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N3">
         <v>1.59386</v>
       </c>
       <c r="O3">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="P3">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="Q3">
-        <v>3.149769485017779</v>
+        <v>4.560310260353332</v>
       </c>
       <c r="R3">
-        <v>28.34792536516001</v>
+        <v>41.04279234318</v>
       </c>
       <c r="S3">
-        <v>0.2032370542855624</v>
+        <v>0.6178151377663311</v>
       </c>
       <c r="T3">
-        <v>0.2032370542855624</v>
+        <v>0.6178151377663311</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>5.928568666666667</v>
+        <v>8.583520999999999</v>
       </c>
       <c r="H4">
-        <v>17.785706</v>
+        <v>25.750563</v>
       </c>
       <c r="I4">
-        <v>0.3809768389628237</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="J4">
-        <v>0.3809768389628236</v>
+        <v>0.8910607110509009</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,22 +682,22 @@
         <v>0.283555</v>
       </c>
       <c r="O4">
-        <v>0.09490551620427469</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="P4">
-        <v>0.0949055162042747</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="Q4">
-        <v>0.5603584294255556</v>
+        <v>0.8113000990516666</v>
       </c>
       <c r="R4">
-        <v>5.04322586483</v>
+        <v>7.301700891465</v>
       </c>
       <c r="S4">
-        <v>0.03615680356363962</v>
+        <v>0.1099121449746728</v>
       </c>
       <c r="T4">
-        <v>0.03615680356363962</v>
+        <v>0.1099121449746728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.583520999999999</v>
+        <v>1.049404</v>
       </c>
       <c r="H5">
-        <v>25.750563</v>
+        <v>3.148212</v>
       </c>
       <c r="I5">
-        <v>0.5515872180307627</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="J5">
-        <v>0.5515872180307626</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3701153333333333</v>
+        <v>0.1404576666666667</v>
       </c>
       <c r="N5">
-        <v>1.110346</v>
+        <v>0.421373</v>
       </c>
       <c r="O5">
-        <v>0.3716314658367921</v>
+        <v>0.183302244487095</v>
       </c>
       <c r="P5">
-        <v>0.3716314658367921</v>
+        <v>0.1833022444870949</v>
       </c>
       <c r="Q5">
-        <v>3.176892736088666</v>
+        <v>0.1473968372306667</v>
       </c>
       <c r="R5">
-        <v>28.592034624798</v>
+        <v>1.326571535076</v>
       </c>
       <c r="S5">
-        <v>0.2049871663736106</v>
+        <v>0.01996881617719804</v>
       </c>
       <c r="T5">
-        <v>0.2049871663736106</v>
+        <v>0.01996881617719803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.583520999999999</v>
+        <v>1.049404</v>
       </c>
       <c r="H6">
-        <v>25.750563</v>
+        <v>3.148212</v>
       </c>
       <c r="I6">
-        <v>0.5515872180307627</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="J6">
-        <v>0.5515872180307626</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5312866666666668</v>
+        <v>0.5312866666666666</v>
       </c>
       <c r="N6">
         <v>1.59386</v>
       </c>
       <c r="O6">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="P6">
-        <v>0.5334630179589332</v>
+        <v>0.6933479729318232</v>
       </c>
       <c r="Q6">
-        <v>4.560310260353334</v>
+        <v>0.5575343531466666</v>
       </c>
       <c r="R6">
-        <v>41.04279234318</v>
+        <v>5.017809178319999</v>
       </c>
       <c r="S6">
-        <v>0.2942513819982628</v>
+        <v>0.075532835165492</v>
       </c>
       <c r="T6">
-        <v>0.2942513819982627</v>
+        <v>0.075532835165492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.583520999999999</v>
+        <v>1.049404</v>
       </c>
       <c r="H7">
-        <v>25.750563</v>
+        <v>3.148212</v>
       </c>
       <c r="I7">
-        <v>0.5515872180307627</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="J7">
-        <v>0.5515872180307626</v>
+        <v>0.1089392889490991</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,208 +868,22 @@
         <v>0.283555</v>
       </c>
       <c r="O7">
-        <v>0.09490551620427469</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="P7">
-        <v>0.0949055162042747</v>
+        <v>0.1233497825810819</v>
       </c>
       <c r="Q7">
-        <v>0.8113000990516666</v>
+        <v>0.09918791707333333</v>
       </c>
       <c r="R7">
-        <v>7.301700891465</v>
+        <v>0.89269125366</v>
       </c>
       <c r="S7">
-        <v>0.05234866965888935</v>
+        <v>0.01343763760640902</v>
       </c>
       <c r="T7">
-        <v>0.05234866965888935</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.049404</v>
-      </c>
-      <c r="H8">
-        <v>3.148212</v>
-      </c>
-      <c r="I8">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="J8">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.3701153333333333</v>
-      </c>
-      <c r="N8">
-        <v>1.110346</v>
-      </c>
-      <c r="O8">
-        <v>0.3716314658367921</v>
-      </c>
-      <c r="P8">
-        <v>0.3716314658367921</v>
-      </c>
-      <c r="Q8">
-        <v>0.3884005112613332</v>
-      </c>
-      <c r="R8">
-        <v>3.495604601351999</v>
-      </c>
-      <c r="S8">
-        <v>0.02506131834955986</v>
-      </c>
-      <c r="T8">
-        <v>0.02506131834955986</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.049404</v>
-      </c>
-      <c r="H9">
-        <v>3.148212</v>
-      </c>
-      <c r="I9">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="J9">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.5312866666666668</v>
-      </c>
-      <c r="N9">
-        <v>1.59386</v>
-      </c>
-      <c r="O9">
-        <v>0.5334630179589332</v>
-      </c>
-      <c r="P9">
-        <v>0.5334630179589332</v>
-      </c>
-      <c r="Q9">
-        <v>0.5575343531466667</v>
-      </c>
-      <c r="R9">
-        <v>5.01780917832</v>
-      </c>
-      <c r="S9">
-        <v>0.03597458167510802</v>
-      </c>
-      <c r="T9">
-        <v>0.03597458167510802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.049404</v>
-      </c>
-      <c r="H10">
-        <v>3.148212</v>
-      </c>
-      <c r="I10">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="J10">
-        <v>0.06743594300641362</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.09451833333333333</v>
-      </c>
-      <c r="N10">
-        <v>0.283555</v>
-      </c>
-      <c r="O10">
-        <v>0.09490551620427469</v>
-      </c>
-      <c r="P10">
-        <v>0.0949055162042747</v>
-      </c>
-      <c r="Q10">
-        <v>0.09918791707333331</v>
-      </c>
-      <c r="R10">
-        <v>0.8926912536599999</v>
-      </c>
-      <c r="S10">
-        <v>0.006400042981745732</v>
-      </c>
-      <c r="T10">
-        <v>0.006400042981745733</v>
+        <v>0.01343763760640902</v>
       </c>
     </row>
   </sheetData>
